--- a/data/trans_dic/P3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda unifamiliar independiente</t>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>32,84%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>27,77%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29,27%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>30,95%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>32,56%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>31,92%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>31,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31,2%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31,78%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>27,62%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>32,01%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>33,05%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>32,39%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>32,55%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>27,69%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>29,04%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,36; 37,03</t>
+          <t>29,46; 36,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,37; 37,91</t>
+          <t>28,43; 36,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,99; 37,02</t>
+          <t>28,33; 35,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,99; 38,17</t>
+          <t>29,51; 37,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,27; 31,2</t>
+          <t>27,78; 37,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,81; 34,5</t>
+          <t>24,29; 31,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,93; 36,22</t>
+          <t>25,97; 33,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,47; 35,17</t>
+          <t>27,61; 34,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,12; 34,69</t>
+          <t>28,53; 35,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,4; 31,18</t>
+          <t>28,78; 35,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,62; 34,72</t>
+          <t>28,17; 34,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 36,09</t>
+          <t>28,16; 35,75</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>29,9; 34,95</t>
+          <t>24,51; 31,06</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>29,7; 35,03</t>
+          <t>25,66; 31,93</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>25,45; 30,18</t>
+          <t>29,69; 34,58</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>29,68; 35,0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>29,65; 34,34</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>29,6; 35,1</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>29,33; 35,29</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>25,27; 30,29</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>26,63; 31,33</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>63,93%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>61,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>63,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,97%</t>
+          <t>60,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,23%</t>
+          <t>61,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>51,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>59,89%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>57,67%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>56,44%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>57,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>56,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>57,14%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>61,9%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>59,67%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>59,89%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>59,03%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>59,23%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>51,58%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>50,34%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,97; 68,1</t>
+          <t>59,5; 68,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,64; 67,42</t>
+          <t>56,24; 66,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,42; 68,15</t>
+          <t>58,0; 67,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,76; 66,02</t>
+          <t>55,51; 66,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,59; 58,01</t>
+          <t>55,9; 66,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,15; 64,02</t>
+          <t>43,19; 57,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,13; 62,17</t>
+          <t>40,75; 55,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,09; 60,76</t>
+          <t>55,97; 64,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,96; 61,17</t>
+          <t>53,15; 62,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,64; 58,6</t>
+          <t>52,32; 60,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58,56; 65,05</t>
+          <t>52,64; 61,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,39; 63,36</t>
+          <t>51,32; 61,08</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>56,9; 63,2</t>
+          <t>46,06; 59,8</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>55,62; 62,02</t>
+          <t>45,26; 59,45</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>46,92; 57,38</t>
+          <t>58,29; 64,85</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>56,38; 63,0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>56,75; 63,27</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>55,58; 62,39</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>55,32; 62,73</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>46,67; 56,39</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>45,36; 55,31</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>76,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>72,48%</t>
+          <t>71,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>78,36%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>83,94%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>85,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>80,19%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>80,51%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>78,19%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73,48%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>81,43%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>81,76%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>77,46%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>81,42%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>80,5%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>77,13%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>74,77%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>75,93%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,24; 86,5</t>
+          <t>67,42; 86,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,44; 86,04</t>
+          <t>60,26; 84,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,19; 82,09</t>
+          <t>62,26; 81,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,62; 80,27</t>
+          <t>58,74; 78,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>65,92; 86,84</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>77,6; 89,23</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,8; 90,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>73,37; 86,02</t>
+          <t>77,57; 88,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,5; 84,29</t>
+          <t>77,27; 89,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>73,31; 86,18</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70,78; 83,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>64,21; 81,31</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>74,53; 85,97</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>73,97; 86,89</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>71,31; 82,31</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>68,81; 80,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>74,92; 86,41</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>71,84; 85,66</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>71,16; 82,07</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>67,27; 80,35</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>68,26; 81,62</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>33,37%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33,91%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>48,29%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>48,28%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>46,72%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>46,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>46,48%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>46,24%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>32,89%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>49,69%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>49,38%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>48,45%</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
+          <t>49,68%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>48,67%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>48,09%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>47,77%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>48,05%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>33,13%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>33,96%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,75; 53,98</t>
+          <t>48,21; 54,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,24; 54,28</t>
+          <t>46,03; 52,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,2; 53,38</t>
+          <t>46,7; 52,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,42; 52,85</t>
+          <t>45,71; 52,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,08; 36,61</t>
+          <t>45,81; 53,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,73; 50,57</t>
+          <t>30,45; 36,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,58; 51,36</t>
+          <t>30,81; 37,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,54; 49,29</t>
+          <t>45,91; 50,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,71; 49,08</t>
+          <t>45,23; 50,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,91; 36,28</t>
+          <t>44,25; 49,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,76; 51,57</t>
+          <t>43,95; 49,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,1; 51,69</t>
+          <t>43,72; 49,59</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,59; 50,77</t>
+          <t>29,89; 36,27</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>45,78; 50,0</t>
+          <t>30,93; 37,11</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>30,86; 35,39</t>
+          <t>47,81; 51,71</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>46,45; 50,77</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>46,05; 49,88</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>45,85; 49,9</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>45,7; 50,39</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>30,96; 35,42</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>31,89; 36,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>514.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>543968</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>536684</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>525022</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>550694</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>531386</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>63602</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>66425</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>554327</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>578383</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>580729</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>567506</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>571316</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>65581</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>67692</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1098295</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1115067</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1105751</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1118200</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1102702</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>129182</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>134117</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>483129; 605112</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>469834; 602531</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>466789; 586756</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>485446; 616318</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>449580; 606056</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>55635; 71592</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58930; 75316</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>494474; 609382</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>516155; 637686</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>526396; 647707</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>512367; 628694</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>506259; 642582</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>58197; 73740</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>60277; 75018</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1018781; 1186554</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1027513; 1211622</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1030795; 1193731</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1025387; 1215849</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>1001795; 1205196</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>117852; 141276</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>123015; 144696</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>742.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>597.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>715.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>707.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>566.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>886567</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>850325</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>870364</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>841554</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>850640</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36874</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35006</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>844320</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>799841</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>777560</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>788843</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>789519</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>34083</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>34869</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1730887</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1650166</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1647923</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1630397</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1640158</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>70956</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>69876</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>825007; 948743</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>772752; 916092</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>799889; 934798</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>766798; 912390</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>772981; 915337</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31100; 41583</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29421; 39800</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>789085; 906516</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>739557; 864868</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>718109; 827756</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>726626; 844584</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>711420; 846640</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>30201; 39205</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>30147; 39598</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1630074; 1813520</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1559084; 1742218</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1561465; 1740958</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1535002; 1723194</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1531881; 1736977</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>64211; 77575</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>62963; 76768</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>333862</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>323410</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>312238</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>302022</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>322921</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>345751</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>348543</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>329755</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>322078</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>300536</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>679614</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>671953</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>641993</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>624101</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>623457</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>285042; 365446</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>254769; 355877</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>263225; 343352</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>248362; 333910</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>271655; 357893</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>319522; 365733</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>318277; 368983</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>300261; 352986</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>291558; 344886</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>262619; 332566</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>625333; 721249</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>599682; 714989</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>592343; 683182</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>561519; 670689</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>560520; 670170</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>588.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>684.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>673.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>523.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>788.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>647.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>786.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>791.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>592.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1481.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1235.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1470.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1464.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>1115.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>676.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>690.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1764397</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1710418</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1707625</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1694271</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1704946</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>100475</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>101431</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1744399</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1726767</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1688042</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1678427</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1661371</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>99663</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>102562</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3508796</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3437185</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>3395667</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3372698</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>3366317</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>200139</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>203993</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1663080; 1872267</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1587793; 1813561</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1610980; 1814208</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1576931; 1798457</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1563526; 1818889</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>91675; 110932</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>92165; 111038</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1658497; 1834594</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1633945; 1820306</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1597686; 1778293</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1587245; 1770356</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1570914; 1781806</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>90574; 109877</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>93275; 111916</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3376788; 3651658</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3280736; 3585222</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3251537; 3521848</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3237015; 3523523</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>3201720; 3530004</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>187015; 213974</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>191560; 217195</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
